--- a/tools/workbook_010.xlsx
+++ b/tools/workbook_010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkampf/GITHUB.confluent/kstreams-perf-test/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B51643-E2D8-754E-8076-26C1EEDF182A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC98AA4-CB6B-8249-A55C-6AA54C4F89A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="1060" windowWidth="33600" windowHeight="19300" xr2:uid="{2FCFDD22-F4C1-C24D-B20B-691E28352D1A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19300" xr2:uid="{2FCFDD22-F4C1-C24D-B20B-691E28352D1A}"/>
   </bookViews>
   <sheets>
     <sheet name="LIST OF PROPS IN SYSTEM" sheetId="6" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="82">
   <si>
     <t>property name</t>
   </si>
@@ -296,9 +296,6 @@
     <t>default value</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
@@ -306,6 +303,18 @@
   </si>
   <si>
     <t>21.3.2020</t>
+  </si>
+  <si>
+    <t>Cluster State :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cluster Name : </t>
+  </si>
+  <si>
+    <t>&lt;&lt;NAME&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt; DATE or VERSION &gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -399,15 +408,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -626,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -694,12 +704,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -753,7 +757,7 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -775,6 +779,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1306,13 +1320,13 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" style="2" customWidth="1"/>
@@ -1332,161 +1346,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="37"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+    </row>
+    <row r="4" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56">
+        <f>H38</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="58"/>
+      <c r="L4" s="59">
+        <f>K38</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="61"/>
+      <c r="O4" s="62">
+        <f>N38</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="65">
+        <f>Q38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-    </row>
-    <row r="4" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="58">
-        <f>H38</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="60"/>
-      <c r="L4" s="61">
-        <f>K38</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="62" t="s">
+      <c r="B5" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="67">
+        <v>5</v>
+      </c>
+      <c r="I5" s="68"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="67">
         <v>3</v>
       </c>
-      <c r="N4" s="63"/>
-      <c r="O4" s="64">
-        <f>N38</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="67">
-        <f>Q38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="69">
+      <c r="L5" s="70"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="67">
         <v>5</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="69">
-        <v>3</v>
-      </c>
-      <c r="L5" s="72"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="69">
-        <v>5</v>
-      </c>
-      <c r="O5" s="74"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="69">
+      <c r="O5" s="72"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="67">
         <v>1</v>
       </c>
-      <c r="R5" s="44"/>
+      <c r="R5" s="42"/>
     </row>
     <row r="6" spans="1:18" ht="62" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="40" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="32" t="s">
@@ -2398,13 +2418,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
     </row>
@@ -2421,7 +2441,7 @@
       <c r="D2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="23" t="s">
@@ -2433,13 +2453,13 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="47"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
@@ -2452,7 +2472,7 @@
       <c r="D4" s="16">
         <v>0</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D8</f>
         <v>0</v>
       </c>
@@ -2474,7 +2494,7 @@
       <c r="D5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D9</f>
         <v>0</v>
       </c>
@@ -2496,7 +2516,7 @@
       <c r="D6" s="16">
         <v>1</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!E10</f>
         <v>0</v>
       </c>
@@ -2508,13 +2528,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="52"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="50"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
@@ -2527,7 +2547,7 @@
       <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D17</f>
         <v>0</v>
       </c>
@@ -2539,13 +2559,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="52"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="50"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
@@ -2558,7 +2578,7 @@
       <c r="D10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D22</f>
         <v>0</v>
       </c>
@@ -2570,13 +2590,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="52"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="50"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
@@ -2589,14 +2609,14 @@
       <c r="D12" s="17">
         <v>1</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="49">
         <f>'LIST OF PROPS IN SYSTEM'!D27</f>
         <v>0</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="53" t="s">
+      <c r="G12" s="51" t="s">
         <v>71</v>
       </c>
       <c r="H12" s="20" t="s">
@@ -2634,13 +2654,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
     </row>
@@ -2657,7 +2677,7 @@
       <c r="D2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="23" t="s">
@@ -2670,13 +2690,13 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="47"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
@@ -2689,7 +2709,7 @@
       <c r="D4" s="16">
         <v>0</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D8</f>
         <v>0</v>
       </c>
@@ -2711,7 +2731,7 @@
       <c r="D5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D9</f>
         <v>0</v>
       </c>
@@ -2733,7 +2753,7 @@
       <c r="D6" s="16">
         <v>1</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D10</f>
         <v>0</v>
       </c>
@@ -2755,7 +2775,7 @@
       <c r="D7" s="16">
         <v>16384</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D11</f>
         <v>0</v>
       </c>
@@ -2777,7 +2797,7 @@
       <c r="D8" s="16">
         <v>33554432</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D12</f>
         <v>0</v>
       </c>
@@ -2789,13 +2809,13 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="52"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="50"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
@@ -2808,14 +2828,14 @@
       <c r="D10" s="17">
         <v>1</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="49">
         <f>'LIST OF PROPS IN SYSTEM'!D17</f>
         <v>0</v>
       </c>
       <c r="F10" s="17">
         <v>100000</v>
       </c>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2848,13 +2868,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="15"/>
       <c r="G1" s="22"/>
     </row>
@@ -2871,7 +2891,7 @@
       <c r="D2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="23" t="s">
@@ -2882,13 +2902,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
@@ -2901,7 +2921,7 @@
       <c r="D4" s="16">
         <v>1</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D10</f>
         <v>0</v>
       </c>
@@ -2913,13 +2933,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="52"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="50"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
@@ -2932,7 +2952,7 @@
       <c r="D6" s="16">
         <v>3</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D13</f>
         <v>0</v>
       </c>
@@ -2954,7 +2974,7 @@
       <c r="D7" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D14</f>
         <v>0</v>
       </c>
@@ -2976,7 +2996,7 @@
       <c r="D8" s="16">
         <v>5</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D15</f>
         <v>0</v>
       </c>
@@ -2988,13 +3008,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="52"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="50"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
@@ -3007,7 +3027,7 @@
       <c r="D10" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D18</f>
         <v>0</v>
       </c>
@@ -3029,7 +3049,7 @@
       <c r="D11" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D19</f>
         <v>0</v>
       </c>
@@ -3041,13 +3061,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="52"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="50"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
@@ -3060,7 +3080,7 @@
       <c r="D13" s="16">
         <v>1</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D23</f>
         <v>0</v>
       </c>
@@ -3082,7 +3102,7 @@
       <c r="D14" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="50">
+      <c r="E14" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D24</f>
         <v>0</v>
       </c>
@@ -3094,31 +3114,31 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="52"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="50"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="52"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="50"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="52"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="50"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
@@ -3131,7 +3151,7 @@
       <c r="D18" s="16">
         <v>1</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D28</f>
         <v>0</v>
       </c>
@@ -3153,7 +3173,7 @@
       <c r="D19" s="16">
         <v>1</v>
       </c>
-      <c r="E19" s="50">
+      <c r="E19" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D29</f>
         <v>0</v>
       </c>
@@ -3175,7 +3195,7 @@
       <c r="D20" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="E20" s="50">
+      <c r="E20" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D30</f>
         <v>0</v>
       </c>
@@ -3197,7 +3217,7 @@
       <c r="D21" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="E21" s="50">
+      <c r="E21" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D31</f>
         <v>0</v>
       </c>
@@ -3219,7 +3239,7 @@
       <c r="D22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="50">
+      <c r="E22" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D32</f>
         <v>0</v>
       </c>
@@ -3241,7 +3261,7 @@
       <c r="D23" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="50">
+      <c r="E23" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D33</f>
         <v>0</v>
       </c>
@@ -3263,7 +3283,7 @@
       <c r="D24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="50">
+      <c r="E24" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D34</f>
         <v>0</v>
       </c>
@@ -3275,13 +3295,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3311,13 +3331,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="22"/>
       <c r="G1" s="15"/>
     </row>
@@ -3334,7 +3354,7 @@
       <c r="D2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="23" t="s">
@@ -3345,13 +3365,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
@@ -3364,7 +3384,7 @@
       <c r="D4" s="16">
         <v>10000</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D20</f>
         <v>0</v>
       </c>
@@ -3376,13 +3396,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="52"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="50"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
@@ -3395,7 +3415,7 @@
       <c r="D6" s="16">
         <v>0</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D25</f>
         <v>0</v>
       </c>
@@ -3407,13 +3427,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="52"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="50"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
@@ -3426,7 +3446,7 @@
       <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D29</f>
         <v>0</v>
       </c>
@@ -3448,7 +3468,7 @@
       <c r="D9" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="48">
         <f>'LIST OF PROPS IN SYSTEM'!D31</f>
         <v>0</v>
       </c>
@@ -3470,14 +3490,14 @@
       <c r="D10" s="17">
         <v>1</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="49">
         <f>'LIST OF PROPS IN SYSTEM'!D35</f>
         <v>0</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="51" t="s">
         <v>71</v>
       </c>
     </row>

--- a/tools/workbook_010.xlsx
+++ b/tools/workbook_010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkampf/GITHUB.confluent/kstreams-perf-test/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D631BCD1-2F43-7449-AEBB-AA8009D965DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7334362D-FF6F-2444-9775-6265D0D54801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="2840" windowWidth="33600" windowHeight="15600" xr2:uid="{2FCFDD22-F4C1-C24D-B20B-691E28352D1A}"/>
+    <workbookView xWindow="0" yWindow="2840" windowWidth="33600" windowHeight="15600" xr2:uid="{2FCFDD22-F4C1-C24D-B20B-691E28352D1A}"/>
   </bookViews>
   <sheets>
     <sheet name="LIST OF PROPS IN SYSTEM" sheetId="6" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="124">
   <si>
     <t>property name</t>
   </si>
@@ -452,6 +452,15 @@
   </si>
   <si>
     <t>z</t>
+  </si>
+  <si>
+    <t>List of all Configuration Parameters:</t>
+  </si>
+  <si>
+    <t>List of properties which can be changed per Topic in Confluent Cloud:</t>
+  </si>
+  <si>
+    <t>https://docs.confluent.io/current/cloud/using/topics/topics.html</t>
   </si>
 </sst>
 </file>
@@ -788,7 +797,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -919,12 +928,6 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -934,7 +937,6 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1015,6 +1017,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1542,10 +1562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95FEF80-9E40-194C-B5E1-D74BAC4C3B30}">
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1571,7 +1591,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="62" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="30" t="s">
@@ -1588,7 +1608,7 @@
       <c r="G1" s="30"/>
       <c r="H1" s="30"/>
       <c r="I1" s="28"/>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="69" t="s">
         <v>67</v>
       </c>
       <c r="K1" s="30"/>
@@ -1602,7 +1622,7 @@
       <c r="S1" s="30"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="30" t="s">
@@ -1627,7 +1647,7 @@
       <c r="S2" s="30"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="62" t="s">
         <v>71</v>
       </c>
       <c r="B3" s="30" t="s">
@@ -1652,13 +1672,13 @@
       <c r="S3" s="30"/>
     </row>
     <row r="4" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="66"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="44"/>
       <c r="E4" s="44"/>
       <c r="F4" s="45"/>
@@ -1667,7 +1687,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="47"/>
-      <c r="J4" s="73">
+      <c r="J4" s="70">
         <f>I38</f>
         <v>0</v>
       </c>
@@ -1675,7 +1695,7 @@
         <v>4</v>
       </c>
       <c r="L4" s="49"/>
-      <c r="M4" s="77">
+      <c r="M4" s="74">
         <f>L38</f>
         <v>0</v>
       </c>
@@ -1683,7 +1703,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="51"/>
-      <c r="P4" s="78">
+      <c r="P4" s="75">
         <f>O38</f>
         <v>0</v>
       </c>
@@ -1691,19 +1711,19 @@
         <v>46</v>
       </c>
       <c r="R4" s="53"/>
-      <c r="S4" s="79">
+      <c r="S4" s="76">
         <f>R38</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="66"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
       <c r="F5" s="45"/>
@@ -1744,7 +1764,7 @@
       <c r="D6" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="85" t="s">
         <v>86</v>
       </c>
       <c r="F6" s="27" t="s">
@@ -1756,10 +1776,10 @@
       <c r="H6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="70" t="s">
+      <c r="I6" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="J6" s="71" t="s">
+      <c r="J6" s="68" t="s">
         <v>95</v>
       </c>
       <c r="K6" s="23" t="s">
@@ -1768,7 +1788,7 @@
       <c r="L6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="71" t="s">
+      <c r="M6" s="68" t="s">
         <v>95</v>
       </c>
       <c r="N6" s="23" t="s">
@@ -1777,7 +1797,7 @@
       <c r="O6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="71" t="s">
+      <c r="P6" s="68" t="s">
         <v>95</v>
       </c>
       <c r="Q6" s="23" t="s">
@@ -1786,7 +1806,7 @@
       <c r="R6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="71" t="s">
+      <c r="S6" s="68" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1800,16 +1820,16 @@
       <c r="G7" s="13"/>
       <c r="H7" s="6"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="74"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="6"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="74"/>
+      <c r="M7" s="71"/>
       <c r="N7" s="6"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="74"/>
+      <c r="P7" s="71"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="74"/>
+      <c r="S7" s="71"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
@@ -1818,13 +1838,13 @@
       <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="65" t="s">
         <v>87</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="96">
+      <c r="E8" s="93">
         <v>1</v>
       </c>
       <c r="F8" s="26"/>
@@ -1834,25 +1854,25 @@
       <c r="H8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="89" t="str">
+      <c r="I8" s="86" t="str">
         <f>latency!G4</f>
         <v>a</v>
       </c>
-      <c r="J8" s="94"/>
-      <c r="K8" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="89" t="str">
+      <c r="J8" s="91"/>
+      <c r="K8" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="86" t="str">
         <f>throughput!G4</f>
         <v>g</v>
       </c>
-      <c r="M8" s="94"/>
+      <c r="M8" s="91"/>
       <c r="N8" s="22"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="75"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="72"/>
       <c r="Q8" s="22"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="75"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="72"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -1867,7 +1887,7 @@
       <c r="D9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="97">
+      <c r="E9" s="94">
         <v>2</v>
       </c>
       <c r="F9" s="13"/>
@@ -1877,25 +1897,25 @@
       <c r="H9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="90" t="str">
+      <c r="I9" s="87" t="str">
         <f>latency!G5</f>
         <v>b</v>
       </c>
-      <c r="J9" s="92"/>
-      <c r="K9" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="90" t="str">
+      <c r="J9" s="89"/>
+      <c r="K9" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="87" t="str">
         <f>throughput!G5</f>
         <v>h</v>
       </c>
-      <c r="M9" s="92"/>
+      <c r="M9" s="89"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="74"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="71"/>
       <c r="Q9" s="6"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="74"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="71"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
@@ -1904,13 +1924,13 @@
       <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="66" t="s">
         <v>87</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="97">
+      <c r="E10" s="94">
         <v>3</v>
       </c>
       <c r="F10" s="13"/>
@@ -1920,30 +1940,30 @@
       <c r="H10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="90" t="str">
+      <c r="I10" s="87" t="str">
         <f>latency!G6</f>
         <v>c</v>
       </c>
-      <c r="J10" s="92"/>
-      <c r="K10" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="90" t="str">
+      <c r="J10" s="89"/>
+      <c r="K10" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="87" t="str">
         <f>throughput!G6</f>
         <v>i</v>
       </c>
-      <c r="M10" s="92"/>
+      <c r="M10" s="89"/>
       <c r="N10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="90" t="str">
+      <c r="O10" s="87" t="str">
         <f>durability!G4</f>
         <v>m</v>
       </c>
-      <c r="P10" s="92"/>
+      <c r="P10" s="89"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="74"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="71"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
@@ -1952,13 +1972,13 @@
       <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="66" t="s">
         <v>87</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="97">
+      <c r="E11" s="94">
         <v>4</v>
       </c>
       <c r="F11" s="13"/>
@@ -1966,22 +1986,22 @@
         <v>16384</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="90" t="str">
+      <c r="I11" s="80"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="87" t="str">
         <f>throughput!G7</f>
         <v>j</v>
       </c>
-      <c r="M11" s="92"/>
+      <c r="M11" s="89"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="74"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="71"/>
       <c r="Q11" s="6"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="74"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="71"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
@@ -1990,13 +2010,13 @@
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="66" t="s">
         <v>87</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="97">
+      <c r="E12" s="94">
         <v>5</v>
       </c>
       <c r="F12" s="13"/>
@@ -2004,22 +2024,22 @@
         <v>33554432</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="90" t="str">
+      <c r="I12" s="80"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="87" t="str">
         <f>throughput!G8</f>
         <v>k</v>
       </c>
-      <c r="M12" s="92"/>
+      <c r="M12" s="89"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="74"/>
+      <c r="O12" s="83"/>
+      <c r="P12" s="71"/>
       <c r="Q12" s="6"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="74"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="71"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
@@ -2028,13 +2048,13 @@
       <c r="B13" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="66" t="s">
         <v>87</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="97">
+      <c r="E13" s="94">
         <v>6</v>
       </c>
       <c r="F13" s="13"/>
@@ -2042,22 +2062,22 @@
         <v>1</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="74"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="71"/>
       <c r="N13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O13" s="90" t="str">
+      <c r="O13" s="87" t="str">
         <f>durability!G6</f>
         <v>n</v>
       </c>
-      <c r="P13" s="92"/>
+      <c r="P13" s="89"/>
       <c r="Q13" s="6"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="74"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="71"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
@@ -2072,7 +2092,7 @@
       <c r="D14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="97">
+      <c r="E14" s="94">
         <v>7</v>
       </c>
       <c r="F14" s="13"/>
@@ -2080,22 +2100,22 @@
         <v>0</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="74"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="71"/>
       <c r="N14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="90" t="str">
+      <c r="O14" s="87" t="str">
         <f>durability!G7</f>
         <v>o</v>
       </c>
-      <c r="P14" s="92"/>
+      <c r="P14" s="89"/>
       <c r="Q14" s="6"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="74"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="71"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -2110,7 +2130,7 @@
       <c r="D15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="97">
+      <c r="E15" s="94">
         <v>8</v>
       </c>
       <c r="F15" s="13"/>
@@ -2118,22 +2138,22 @@
         <v>5</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="74"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="71"/>
       <c r="N15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O15" s="90" t="str">
+      <c r="O15" s="87" t="str">
         <f>durability!G8</f>
         <v>p</v>
       </c>
-      <c r="P15" s="92"/>
+      <c r="P15" s="89"/>
       <c r="Q15" s="6"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="74"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="71"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
@@ -2145,16 +2165,16 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="82"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="79"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="76"/>
+      <c r="M16" s="73"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="76"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="73"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="76"/>
+      <c r="S16" s="73"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
@@ -2169,7 +2189,7 @@
       <c r="D17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="96">
+      <c r="E17" s="93">
         <v>9</v>
       </c>
       <c r="F17" s="26"/>
@@ -2179,25 +2199,25 @@
       <c r="H17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="90" t="str">
+      <c r="I17" s="87" t="str">
         <f>latency!G8</f>
         <v>d</v>
       </c>
-      <c r="J17" s="92"/>
+      <c r="J17" s="89"/>
       <c r="K17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="89" t="str">
+      <c r="L17" s="86" t="str">
         <f>throughput!G10</f>
         <v>l</v>
       </c>
-      <c r="M17" s="94"/>
+      <c r="M17" s="91"/>
       <c r="N17" s="22"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="75"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="72"/>
       <c r="Q17" s="22"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="75"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="72"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -2212,7 +2232,7 @@
       <c r="D18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="97">
+      <c r="E18" s="94">
         <v>10</v>
       </c>
       <c r="F18" s="13"/>
@@ -2220,22 +2240,22 @@
         <v>1</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="74"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="71"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="74"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="71"/>
       <c r="N18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="90" t="str">
+      <c r="O18" s="87" t="str">
         <f>durability!G10</f>
         <v>q</v>
       </c>
-      <c r="P18" s="92"/>
+      <c r="P18" s="89"/>
       <c r="Q18" s="6"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="74"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="71"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
@@ -2250,7 +2270,7 @@
       <c r="D19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="97">
+      <c r="E19" s="94">
         <v>11</v>
       </c>
       <c r="F19" s="13"/>
@@ -2258,22 +2278,22 @@
         <v>89</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="74"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="71"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="74"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="71"/>
       <c r="N19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O19" s="90" t="str">
+      <c r="O19" s="87" t="str">
         <f>durability!G11</f>
         <v>r</v>
       </c>
-      <c r="P19" s="92"/>
+      <c r="P19" s="89"/>
       <c r="Q19" s="6"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="74"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="71"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
@@ -2288,7 +2308,7 @@
       <c r="D20" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="97">
+      <c r="E20" s="94">
         <v>12</v>
       </c>
       <c r="F20" s="13"/>
@@ -2296,22 +2316,22 @@
         <v>10000</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="74"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="71"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="74"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="71"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="74"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="71"/>
       <c r="Q20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R20" s="90" t="str">
+      <c r="R20" s="87" t="str">
         <f>availability!G4</f>
         <v>c</v>
       </c>
-      <c r="S20" s="92"/>
+      <c r="S20" s="89"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
@@ -2323,16 +2343,16 @@
       <c r="G21" s="14"/>
       <c r="H21" s="7"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="76"/>
+      <c r="J21" s="73"/>
       <c r="K21" s="7"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="76"/>
+      <c r="M21" s="73"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="76"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="73"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="76"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="73"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
@@ -2347,7 +2367,7 @@
       <c r="D22" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="96">
+      <c r="E22" s="93">
         <v>13</v>
       </c>
       <c r="F22" s="26"/>
@@ -2357,20 +2377,20 @@
       <c r="H22" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="89" t="str">
+      <c r="I22" s="86" t="str">
         <f>latency!G10</f>
         <v>e</v>
       </c>
-      <c r="J22" s="94"/>
+      <c r="J22" s="91"/>
       <c r="K22" s="22"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="75"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="72"/>
       <c r="N22" s="22"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="75"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="72"/>
       <c r="Q22" s="22"/>
-      <c r="R22" s="87"/>
-      <c r="S22" s="75"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="72"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
@@ -2385,7 +2405,7 @@
       <c r="D23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="97">
+      <c r="E23" s="94">
         <v>14</v>
       </c>
       <c r="F23" s="13"/>
@@ -2393,22 +2413,22 @@
         <v>1</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="74"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="71"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="74"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="71"/>
       <c r="N23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="90" t="str">
+      <c r="O23" s="87" t="str">
         <f>durability!G13</f>
         <v>s</v>
       </c>
-      <c r="P23" s="92"/>
+      <c r="P23" s="89"/>
       <c r="Q23" s="6"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="74"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="71"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
@@ -2423,7 +2443,7 @@
       <c r="D24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="97">
+      <c r="E24" s="94">
         <v>15</v>
       </c>
       <c r="F24" s="13"/>
@@ -2431,22 +2451,22 @@
         <v>32</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="74"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="71"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="74"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="71"/>
       <c r="N24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O24" s="90" t="str">
+      <c r="O24" s="87" t="str">
         <f>durability!G14</f>
         <v>t</v>
       </c>
-      <c r="P24" s="92"/>
+      <c r="P24" s="89"/>
       <c r="Q24" s="6"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="74"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="71"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
@@ -2461,7 +2481,7 @@
       <c r="D25" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="97">
+      <c r="E25" s="94">
         <v>16</v>
       </c>
       <c r="F25" s="13"/>
@@ -2469,22 +2489,22 @@
         <v>0</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="74"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="71"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="74"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="71"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="74"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="71"/>
       <c r="Q25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R25" s="90" t="str">
+      <c r="R25" s="87" t="str">
         <f>availability!G6</f>
         <v>d</v>
       </c>
-      <c r="S25" s="92"/>
+      <c r="S25" s="89"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
@@ -2499,7 +2519,7 @@
       <c r="D26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="98">
+      <c r="E26" s="95">
         <v>17</v>
       </c>
       <c r="F26" s="14" t="s">
@@ -2509,27 +2529,27 @@
         <v>1</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="76"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="73"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="76"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="73"/>
       <c r="N26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O26" s="91" t="str">
+      <c r="O26" s="88" t="str">
         <f>durability!G15</f>
         <v>u</v>
       </c>
-      <c r="P26" s="93"/>
+      <c r="P26" s="90"/>
       <c r="Q26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="R26" s="91" t="str">
+      <c r="R26" s="88" t="str">
         <f>availability!G7</f>
         <v>e</v>
       </c>
-      <c r="S26" s="93"/>
+      <c r="S26" s="90"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="s">
@@ -2544,7 +2564,7 @@
       <c r="D27" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="96">
+      <c r="E27" s="93">
         <v>18</v>
       </c>
       <c r="F27" s="26" t="s">
@@ -2556,20 +2576,20 @@
       <c r="H27" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="89" t="str">
+      <c r="I27" s="86" t="str">
         <f>latency!G12</f>
         <v>f</v>
       </c>
-      <c r="J27" s="94"/>
+      <c r="J27" s="91"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="75"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="72"/>
       <c r="N27" s="22"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="75"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="72"/>
       <c r="Q27" s="22"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="75"/>
+      <c r="R27" s="84"/>
+      <c r="S27" s="72"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
@@ -2584,7 +2604,7 @@
       <c r="D28" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="97">
+      <c r="E28" s="94">
         <v>19</v>
       </c>
       <c r="F28" s="13" t="s">
@@ -2594,22 +2614,22 @@
         <v>1</v>
       </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="74"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="71"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="74"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="71"/>
       <c r="N28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O28" s="90" t="str">
+      <c r="O28" s="87" t="str">
         <f>durability!G18</f>
         <v>v</v>
       </c>
-      <c r="P28" s="92"/>
+      <c r="P28" s="89"/>
       <c r="Q28" s="6"/>
-      <c r="R28" s="86"/>
-      <c r="S28" s="74"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="71"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
@@ -2624,7 +2644,7 @@
       <c r="D29" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="97">
+      <c r="E29" s="94">
         <v>20</v>
       </c>
       <c r="F29" s="13" t="s">
@@ -2634,27 +2654,27 @@
         <v>1</v>
       </c>
       <c r="H29" s="6"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="74"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="71"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="74"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="71"/>
       <c r="N29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O29" s="90" t="str">
+      <c r="O29" s="87" t="str">
         <f>durability!G19</f>
         <v>w</v>
       </c>
-      <c r="P29" s="92"/>
+      <c r="P29" s="89"/>
       <c r="Q29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R29" s="90" t="str">
+      <c r="R29" s="87" t="str">
         <f>availability!G9</f>
         <v>f</v>
       </c>
-      <c r="S29" s="92"/>
+      <c r="S29" s="89"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
@@ -2669,7 +2689,7 @@
       <c r="D30" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="97">
+      <c r="E30" s="94">
         <v>21</v>
       </c>
       <c r="F30" s="13" t="s">
@@ -2679,22 +2699,22 @@
         <v>1</v>
       </c>
       <c r="H30" s="6"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="74"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="71"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="74"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="71"/>
       <c r="N30" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O30" s="90" t="str">
+      <c r="O30" s="87" t="str">
         <f>durability!G20</f>
         <v>x</v>
       </c>
-      <c r="P30" s="92"/>
+      <c r="P30" s="89"/>
       <c r="Q30" s="6"/>
-      <c r="R30" s="86"/>
-      <c r="S30" s="74"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="71"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
@@ -2709,7 +2729,7 @@
       <c r="D31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="97">
+      <c r="E31" s="94">
         <v>22</v>
       </c>
       <c r="F31" s="13" t="s">
@@ -2719,27 +2739,27 @@
         <v>0</v>
       </c>
       <c r="H31" s="6"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="74"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="71"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="74"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="71"/>
       <c r="N31" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O31" s="90" t="str">
+      <c r="O31" s="87" t="str">
         <f>durability!G21</f>
         <v>y</v>
       </c>
-      <c r="P31" s="92"/>
+      <c r="P31" s="89"/>
       <c r="Q31" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R31" s="90" t="str">
+      <c r="R31" s="87" t="str">
         <f>availability!G10</f>
         <v>g</v>
       </c>
-      <c r="S31" s="92"/>
+      <c r="S31" s="89"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
@@ -2754,7 +2774,7 @@
       <c r="D32" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="97">
+      <c r="E32" s="94">
         <v>23</v>
       </c>
       <c r="F32" s="13" t="s">
@@ -2764,22 +2784,22 @@
         <v>37</v>
       </c>
       <c r="H32" s="6"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="74"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="71"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="74"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="71"/>
       <c r="N32" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O32" s="90" t="str">
+      <c r="O32" s="87" t="str">
         <f>durability!G22</f>
         <v>z</v>
       </c>
-      <c r="P32" s="92"/>
+      <c r="P32" s="89"/>
       <c r="Q32" s="6"/>
-      <c r="R32" s="86"/>
-      <c r="S32" s="74"/>
+      <c r="R32" s="83"/>
+      <c r="S32" s="71"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
@@ -2794,7 +2814,7 @@
       <c r="D33" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="97">
+      <c r="E33" s="94">
         <v>24</v>
       </c>
       <c r="F33" s="13" t="s">
@@ -2804,22 +2824,22 @@
         <v>93</v>
       </c>
       <c r="H33" s="6"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="74"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="71"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="74"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="71"/>
       <c r="N33" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O33" s="90" t="str">
+      <c r="O33" s="87" t="str">
         <f>durability!G23</f>
         <v>a</v>
       </c>
-      <c r="P33" s="92"/>
+      <c r="P33" s="89"/>
       <c r="Q33" s="6"/>
-      <c r="R33" s="86"/>
-      <c r="S33" s="74"/>
+      <c r="R33" s="83"/>
+      <c r="S33" s="71"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
@@ -2834,7 +2854,7 @@
       <c r="D34" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="97">
+      <c r="E34" s="94">
         <v>25</v>
       </c>
       <c r="F34" s="13" t="s">
@@ -2844,22 +2864,22 @@
         <v>93</v>
       </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="74"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="71"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="74"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="71"/>
       <c r="N34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O34" s="90" t="str">
+      <c r="O34" s="87" t="str">
         <f>durability!G24</f>
         <v>b</v>
       </c>
-      <c r="P34" s="92"/>
+      <c r="P34" s="89"/>
       <c r="Q34" s="6"/>
-      <c r="R34" s="86"/>
-      <c r="S34" s="74"/>
+      <c r="R34" s="83"/>
+      <c r="S34" s="71"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
@@ -2874,7 +2894,7 @@
       <c r="D35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="97">
+      <c r="E35" s="94">
         <v>26</v>
       </c>
       <c r="F35" s="13" t="s">
@@ -2884,22 +2904,22 @@
         <v>1</v>
       </c>
       <c r="H35" s="6"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="74"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="71"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="74"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="71"/>
       <c r="N35" s="6"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="74"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="71"/>
       <c r="Q35" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R35" s="90" t="str">
+      <c r="R35" s="87" t="str">
         <f>availability!G11</f>
         <v>h</v>
       </c>
-      <c r="S35" s="92"/>
+      <c r="S35" s="89"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
@@ -2910,65 +2930,86 @@
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="74"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="71"/>
       <c r="K36" s="6"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="74"/>
+      <c r="M36" s="71"/>
       <c r="N36" s="6"/>
       <c r="O36" s="4"/>
-      <c r="P36" s="74"/>
+      <c r="P36" s="71"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="5"/>
-      <c r="S36" s="76"/>
+      <c r="S36" s="73"/>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="80"/>
-      <c r="Q37" s="80"/>
-      <c r="R37" s="95"/>
-      <c r="S37" s="80"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="92"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="92"/>
+      <c r="P37" s="77"/>
+      <c r="Q37" s="77"/>
+      <c r="R37" s="92"/>
+      <c r="S37" s="77"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A38" s="67" t="s">
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="78"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="78"/>
+      <c r="Q38" s="78"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="78"/>
+      <c r="T38" s="4"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B39" s="100" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B40" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="81"/>
-      <c r="N38" s="81"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="81"/>
-      <c r="Q38" s="81"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="81"/>
-      <c r="T38" s="4"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B41" s="99"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B42" s="101" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B43" s="98" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J1" r:id="rId1" xr:uid="{E69CBE43-ACE8-9949-BACE-DEDEB130FA61}"/>
-    <hyperlink ref="A38" r:id="rId2" location="configuration" display="https://kafka.apache.org/documentation/ - configuration" xr:uid="{8EBA4291-49CF-3448-9CD5-522E1C34F05A}"/>
+    <hyperlink ref="B40" r:id="rId2" location="configuration" display="https://kafka.apache.org/documentation/ - configuration" xr:uid="{8EBA4291-49CF-3448-9CD5-522E1C34F05A}"/>
+    <hyperlink ref="B43" r:id="rId3" xr:uid="{D8F47A9F-BFF6-7B45-AFD0-727E6A9C4F03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2993,12 +3034,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
       <c r="E1" s="39"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -3229,12 +3270,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
       <c r="E1" s="39"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -3443,12 +3484,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
       <c r="E1" s="39"/>
       <c r="F1" s="12"/>
       <c r="G1" s="19"/>
@@ -3920,12 +3961,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
       <c r="E1" s="35"/>
       <c r="F1" s="19"/>
       <c r="G1" s="12"/>
